--- a/core/app/static/test.xlsx
+++ b/core/app/static/test.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,54 +434,214 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>as</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>234234</t>
+          <t>f3fs3</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>9430959359</t>
+          <t>sdf</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>+998973445350</t>
+          <t>asfd</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>ыва</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>фыва</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>ыфв</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>фыва</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>фыва</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>фыва</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>track2</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Захаров Захар Захарович</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Проверка DIO1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
         <is>
           <t>AB</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>234235</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>123456789</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>+998973445355</t>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>43ger345</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>+92492582058</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>TR213214325432AZ</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Арам Аванесов</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1564876</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>12345678912345</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>+998909800808</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>123456</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Раджабов Азиз Равшанович</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>AD</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3245209</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>12345678901234</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>+998946300775</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>TMUUZ0000000000001</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Скайуокер Люк Вейдерович</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>AA</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0000000</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>12345678901112</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>+998977380986</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Brazzers98372859</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Лысый из бразерс</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>AA</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9492649</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>16383903939399</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Net</t>
         </is>
       </c>
     </row>

--- a/core/app/static/test.xlsx
+++ b/core/app/static/test.xlsx
@@ -424,64 +424,64 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>track1</t>
+          <t>qwe123</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Ivanov Ivan Ivanovich</t>
+          <t>qwe</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>as</t>
+          <t>qwe</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>f3fs3</t>
+          <t>qwe</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>sdf</t>
+          <t>qwe</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>asfd</t>
+          <t>qwe</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>track2</t>
+          <t>ert</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Проверка DIO1</t>
+          <t>ert</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>ert</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>ert</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>43ger345</t>
+          <t>ert</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>+92492582058</t>
+          <t>ert</t>
         </is>
       </c>
     </row>

--- a/core/app/static/test.xlsx
+++ b/core/app/static/test.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,32 +456,384 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>ыва</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>фыва</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>ыфв</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>фыва</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>фыва</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>фыва</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>track2</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>Проверка DIO1</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>AB</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>132</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>43ger345</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>+92492582058</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>TR213214325432AZ</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Арам Аванесов</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1564876</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>12345678912345</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>+998909800808</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>123456</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Раджабов Азиз Равшанович</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>AD</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3245209</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>12345678901234</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>+998946300775</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>TMUUZ0000000000001</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Скайуокер Люк Вейдерович</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>AA</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0000000</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>12345678901112</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>+998977380986</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Brazzers98372859</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Лысый из бразерс</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>AA</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9492649</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>16383903939399</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Net</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>IHB9268795540</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Rakhimov Samandar</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>AA</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4593322</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>8569955369637964</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>99890975985878</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>MGRMY4000044560YQ</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Agavelyan	Lianna</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>AD</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0832389</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>40409840190085</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>+998974600160</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>asd123</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>sadf</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>asf</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>sadf</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>sadf</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>asd321</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>312sdf</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>sfd</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>sdf</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>sdfsd</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>fsdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>qwe123</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>qwe123123</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>qwe</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>qwe</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>qwe</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>qweqwe</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>qwe321</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>asdf</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>sdf</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>asdf</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>asfd</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>asdf</t>
         </is>
       </c>
     </row>

--- a/core/app/static/test.xlsx
+++ b/core/app/static/test.xlsx
@@ -413,14 +413,79 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>adsdsdsfdsfdf</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>2342442234</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>432432432342</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>324324234</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>23423432423434</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>adsdsaadsads</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>dsadsadsasdad</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>DAS</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>123121231231</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>asads12dsadsad</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>123123123212312</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/core/app/static/test.xlsx
+++ b/core/app/static/test.xlsx
@@ -429,27 +429,27 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>23423432423434</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>432432432342</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>324324234</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
           <t>2342442234</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>234</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>432432432342</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>324324234</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>23423432423434</t>
         </is>
       </c>
     </row>
@@ -461,27 +461,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>123123123212312</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>DAS</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>123121231231</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>asads12dsadsad</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>dsadsadsasdad</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>DAS</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>123121231231</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>asads12dsadsad</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>123123123212312</t>
         </is>
       </c>
     </row>
